--- a/Articles/Inclusive Hiring.xlsx
+++ b/Articles/Inclusive Hiring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iGuest\Google Drive\UW\Github\inclusive-employement\Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6AF56-D032-453E-B5C9-58D7596F84AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60CEE79-411E-46D9-AE30-7B42355A8C22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,7 +1546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1559,13 +1559,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1592,16 +1606,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1904,11 +1922,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.6328125" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="6" max="6" width="1.1796875" customWidth="1"/>
+    <col min="7" max="7" width="1.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1937,13 +1963,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -1960,13 +1986,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -1992,7 +2018,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
@@ -2009,13 +2035,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
@@ -2032,13 +2058,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
@@ -2058,13 +2084,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
@@ -2084,13 +2110,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
@@ -2116,7 +2142,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
@@ -2142,7 +2168,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D10" t="s">
@@ -2168,7 +2194,7 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
@@ -2188,13 +2214,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E12" t="s">
@@ -2217,7 +2243,7 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D13" t="s">
@@ -2243,7 +2269,7 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D14" t="s">
@@ -2269,7 +2295,7 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D15" t="s">
@@ -2289,13 +2315,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E16" t="s">
@@ -2312,13 +2338,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E17" t="s">
@@ -2335,13 +2361,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D18" t="s">
@@ -2367,7 +2393,7 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D19" t="s">
@@ -2393,7 +2419,7 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D20" t="s">
@@ -2413,13 +2439,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D21" t="s">
@@ -2445,7 +2471,7 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D22" t="s">
@@ -2471,7 +2497,7 @@
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E23" t="s">
@@ -2494,7 +2520,7 @@
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D24" t="s">
@@ -2520,7 +2546,7 @@
       <c r="B25" t="s">
         <v>128</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E25" t="s">
@@ -2543,7 +2569,7 @@
       <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E26" t="s">
@@ -2566,7 +2592,7 @@
       <c r="B27" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E27" t="s">
@@ -2589,7 +2615,7 @@
       <c r="B28" t="s">
         <v>128</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>143</v>
       </c>
       <c r="D28" t="s">
@@ -2615,7 +2641,7 @@
       <c r="B29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D29" t="s">
@@ -2641,7 +2667,7 @@
       <c r="B30" t="s">
         <v>128</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D30" t="s">
@@ -2667,7 +2693,7 @@
       <c r="B31" t="s">
         <v>128</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D31" t="s">
@@ -2693,7 +2719,7 @@
       <c r="B32" t="s">
         <v>128</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D32" t="s">
@@ -2719,7 +2745,7 @@
       <c r="B33" t="s">
         <v>128</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D33" t="s">
@@ -2745,7 +2771,7 @@
       <c r="B34" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D34" t="s">
@@ -2771,7 +2797,7 @@
       <c r="B35" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D35" t="s">
@@ -2797,7 +2823,7 @@
       <c r="B36" t="s">
         <v>128</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D36" t="s">
@@ -2823,7 +2849,7 @@
       <c r="B37" t="s">
         <v>189</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D37" t="s">
@@ -2849,7 +2875,7 @@
       <c r="B38" t="s">
         <v>189</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D38" t="s">
@@ -2875,7 +2901,7 @@
       <c r="B39" t="s">
         <v>189</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D39" t="s">
@@ -2901,7 +2927,7 @@
       <c r="B40" t="s">
         <v>189</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D40" t="s">
@@ -2927,7 +2953,7 @@
       <c r="B41" t="s">
         <v>189</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D41" t="s">
@@ -2953,7 +2979,7 @@
       <c r="B42" t="s">
         <v>189</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D42" t="s">
@@ -2979,7 +3005,7 @@
       <c r="B43" t="s">
         <v>189</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>218</v>
       </c>
       <c r="D43" t="s">
@@ -3005,7 +3031,7 @@
       <c r="B44" t="s">
         <v>189</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E44" t="s">
@@ -3028,7 +3054,7 @@
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E45" t="s">
@@ -3051,7 +3077,7 @@
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D46" t="s">
@@ -3071,13 +3097,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D47" t="s">
@@ -3103,7 +3129,7 @@
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>243</v>
       </c>
       <c r="D48" t="s">
@@ -3123,13 +3149,13 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>248</v>
       </c>
       <c r="D49" t="s">
@@ -3155,7 +3181,7 @@
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E50" t="s">
@@ -3178,7 +3204,7 @@
       <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E51" t="s">
@@ -3201,7 +3227,7 @@
       <c r="B52" t="s">
         <v>128</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>264</v>
       </c>
       <c r="D52" t="s">
@@ -3227,7 +3253,7 @@
       <c r="B53" t="s">
         <v>128</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>268</v>
       </c>
       <c r="D53" t="s">
@@ -3253,7 +3279,7 @@
       <c r="B54" t="s">
         <v>128</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>273</v>
       </c>
       <c r="D54" t="s">
@@ -3279,7 +3305,7 @@
       <c r="B55" t="s">
         <v>128</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>278</v>
       </c>
       <c r="D55" t="s">
@@ -3331,7 +3357,7 @@
       <c r="B57" t="s">
         <v>189</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>286</v>
       </c>
       <c r="E57" t="s">
@@ -3354,7 +3380,7 @@
       <c r="B58" t="s">
         <v>189</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>290</v>
       </c>
       <c r="E58" t="s">
@@ -3377,7 +3403,7 @@
       <c r="B59" t="s">
         <v>189</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D59" t="s">
@@ -3403,7 +3429,7 @@
       <c r="B60" t="s">
         <v>189</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D60" t="s">
@@ -3429,7 +3455,7 @@
       <c r="B61" t="s">
         <v>189</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>306</v>
       </c>
       <c r="D61" t="s">
@@ -3455,7 +3481,7 @@
       <c r="B62" t="s">
         <v>189</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>311</v>
       </c>
       <c r="D62" t="s">
@@ -3481,7 +3507,7 @@
       <c r="B63" t="s">
         <v>189</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D63" t="s">
@@ -3501,6 +3527,22 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F732444C-ED26-407F-B8D9-750260AB5AAB}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EA8A14AC-BEB2-4132-92C1-3BAF1C5D0BB3}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{E6E35E21-2C47-41FC-8F38-C598F026637B}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{E7A22B00-A5DD-484A-B52C-DF737F4524EE}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{AE713CF8-8F0F-4241-A5A8-77DA07279800}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{28D9B198-C7F5-46E7-94E2-0B14A1FD8A66}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{4F1FE86A-6346-49AC-A346-827C65A67353}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{578B5CA4-8F34-4E37-BFD5-319EEFD1FF13}"/>
+    <hyperlink ref="A17" r:id="rId9" xr:uid="{62E34269-B34B-49B7-978D-0718E13B2D8F}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{498BA2FB-5A28-47C4-B02A-9982DE86CB6C}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{A1A38280-3BDD-4C7C-AD99-AEAF8E79F600}"/>
+    <hyperlink ref="A47" r:id="rId12" xr:uid="{1C6CC6F2-181B-4FBA-B9B1-7E12570B6422}"/>
+    <hyperlink ref="A49" r:id="rId13" xr:uid="{CD8E847B-612B-4D2C-978C-C71835A4BD00}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Articles/Inclusive Hiring.xlsx
+++ b/Articles/Inclusive Hiring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iGuest\Google Drive\UW\Github\inclusive-employement\Articles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\Capstone\Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D7405-939C-4BAF-8922-EAC4E8DD0C78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03FBD7-8DD4-489D-9D42-AB70195922F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="237">
   <si>
     <t>Link</t>
   </si>
@@ -254,26 +254,7 @@
     <t>autism inclusion diverse abilities accessible blind employment inclusive disabilities hiring disability accessibility</t>
   </si>
   <si>
-    <t>This October marks 75 years ofNational Disability Employment Awareness Monthin the U.S. – with increasing access and opportunity as this year’s theme.</t>
-  </si>
-  <si>
-    <t>https://docs.microsoft.com/en-us/microsoft-365/compliance/inactive-mailboxes-in-office-365</t>
-  </si>
-  <si>
-    <t>Overview of inactive mailboxes - Microsoft 365 Compliance | Microsoft Docs</t>
-  </si>
-  <si>
-    <t>Your organization might need to retain former employees' email after they leave the organization. Depending on your organization's retention requirements, you might need to retain mailbox content for a few months or years after employment ends, or you might need to retain mailbox content indefinitely. Regardless of how long you need to retain email, you can create inactive mailboxes to retain the mailbox of former employees.
-Recover an inactive mailbox.If a former employee (or an employee on a leave of absence) returns to your organization, or if a new employee is hired to take on the job responsibilities of the former employee, you can recover the contents of the inactive mailbox. When you recover an inactive mailbox, the mailbox is converted to a new mailbox, the contents and the folder structure of the inactive mailbox are retained, and the mailbox is linked to a new user account. After it's recovered, the inactive mailbox no longer exists. For step-by-step procedures and information about what happens when you recover an inactive mailbox, seeRecover an inactive mailbox.</t>
-  </si>
-  <si>
-    <t>hired employment</t>
-  </si>
-  <si>
     <t>hiring</t>
-  </si>
-  <si>
-    <t>Your organization might need to retain former employees' email after they leave the organization. Depending on your organization's retention requirements, you might need to retain mailbox content for a few months or years after employment ends, or you might need to retain mailbox content indefinitely. Regardless of how long you need to retain email, you can create inactive mailboxes to retain the mailbox of former employees.</t>
   </si>
   <si>
     <t>https://news.microsoft.com/europe/features/disability-in-the-workplace-insights-and-advice-for-current-or-future-colleagues/</t>
@@ -291,18 +272,6 @@
   </si>
   <si>
     <t>The journey to increasing inclusion in the workplace and creating a more accessible, welcoming environment for people with disabilities is an ongoing one. In this two-part series, we’ll be hearing from our own Microsoft colleagues about how they’ve found the journey so far.</t>
-  </si>
-  <si>
-    <t>https://docs.microsoft.com/en-us/microsoft-365/compliance/recover-an-inactive-mailbox</t>
-  </si>
-  <si>
-    <t>Recover an inactive mailbox - Microsoft 365 Compliance | Microsoft Docs</t>
-  </si>
-  <si>
-    <t>Recover an inactive mailbox.If the former employee returns to your organization, or if a new employee is hired to take on the job responsibilities of the former employee, you can recover the contents of the inactive mailbox. This method converts the inactive mailbox to a new, active mailbox that contains the contents of the inactive mailbox. After it's recovered, the inactive mailbox no longer exists. The procedures in this topic describe this method.</t>
-  </si>
-  <si>
-    <t>hired</t>
   </si>
   <si>
     <t>https://careers.microsoft.com/us/en/legalpolicies</t>
@@ -490,15 +459,6 @@
     <t>She did not want to stop at the hospital. She had a flight to catch, an accessibility conference to attend in California, and more people to enlist in her journey to build a more inclusive world.</t>
   </si>
   <si>
-    <t>https://customers.microsoft.com/en-us/story/830344-state-of-georgia-government-m365-azure</t>
-  </si>
-  <si>
-    <t>Microsoft Customer Story-Keeping critical state services operating to support citizens during COVID-19 with Microsoft highly secure remote work solutions</t>
-  </si>
-  <si>
-    <t>OST is headquartered in Atlanta, Georgia’s capital, where weather can cause great disruption. Downed trees in spring thunderstorms and winter ice storms cause power outages that often last for days and can prevent employees from traveling to the office. Even in good weather, the city’s notorious traffic causes huge delays for employees trying to get to work. Given the critical nature of its business, OST can’t afford to have unexpected downtime. That’s why OST chose to adopt the powerful combination of Microsoft 365 Enterprise, Microsoft Surface Book devices, and Windows Virtual Desktop to provide employees with highly secure, continuous, seamless access to the information and contacts they need to do their jobs from anywhere.</t>
-  </si>
-  <si>
     <t>jobs</t>
   </si>
   <si>
@@ -618,9 +578,6 @@
     <t>recruiting wheelchair inclusion deafness blindness blind culture disabilities diversity jobs disability paralyzed accessibility</t>
   </si>
   <si>
-    <t>It turned out her background-blurring feature wasgood for privacy reasonsas well, helping to hide messy offices during video conference calls or curious café customers during job interviews. So Machanavajhala was one of the people who influenced the decision to develop similar features forMicrosoft TeamsandSkype, and she soon found herself catapulted into the spotlight at Microsoft – as well as into the company’s work on inclusion, a joy to experience after having been excluded at a previous job where her deafness made it hard to fully participate.</t>
-  </si>
-  <si>
     <t>https://blogs.microsoft.com/on-the-issues/2020/10/21/disability-representation-statistics-diversity-inclusion/</t>
   </si>
   <si>
@@ -637,9 +594,6 @@
   </si>
   <si>
     <t>inclusion representation d&amp;i employment culture job disabilities diversity disability accessibility seekers</t>
-  </si>
-  <si>
-    <t>Today, we released ourannual diversity and inclusion report, including U.S. disability representation for the first time.</t>
   </si>
   <si>
     <t>https://blogs.microsoft.com/accessibility/ndeam2020/</t>
@@ -660,9 +614,6 @@
   </si>
   <si>
     <t>month hire autism inclusion awareness abilities accessible blind employment job hiring disabilities inclusive disability national accessibility ndeam seekers</t>
-  </si>
-  <si>
-    <t>October at Microsoft brings falling leaves, steaming cups of pumpkin flavored drinks, the occasional ghostly costume. Most importantly October brings the 75thAnniversary of National Disability Employment Awareness Month (NDEAM) and the chance to reflect on employment for talent with disabilities.</t>
   </si>
   <si>
     <t>https://blogs.microsoft.com/blog/2020/06/30/microsoft-launches-initiative-to-help-25-million-people-worldwide-acquire-the-digital-skills-needed-in-a-covid-19-economy/</t>
@@ -714,15 +665,6 @@
     <t>Around the world, 2020 has emerged as one of the most challenging years in many of our lifetimes. In six months, the world has endured multiple challenges, including a pandemic that has spurred a global economic crisis. As societies reopen, it’s apparent that the economy in July will not be what it was in January. Increasingly, one of the key steps needed to foster a safe and successful economic recovery is expanded access to the digital skills needed to fill new jobs. And one of the keys to a genuinely inclusive recovery are programs to provide easier access to digital skills for people hardest hit by job losses, including those with lower incomes, women, and underrepresented minorities.</t>
   </si>
   <si>
-    <t>https://news.microsoft.com/2019/01/16/microsoft-commits-500-million-to-tackle-affordable-housing-crisis-in-puget-sound-region/</t>
-  </si>
-  <si>
-    <t>Microsoft commits $500 million to tackle affordable housing crisis in Puget Sound region - Stories</t>
-  </si>
-  <si>
-    <t>Across the region, housing costs have risen and increasingly pushed out people with lower and even middle incomes. Puget Sound has become the sixth most expensive region in the country, and the region has seen a 21 percent increase in jobs since 2011, coupled with only a 13 percent increase in housing units. This problem is even more pronounced in the smaller cities around Seattle than in Seattle itself.</t>
-  </si>
-  <si>
     <t>https://www.microsoft.com/en-us/p/interview-guide/9nblggh0grsb</t>
   </si>
   <si>
@@ -815,73 +757,10 @@
     <t>recruiting diverse culture inclusion</t>
   </si>
   <si>
-    <t>https://www.intel.com/content/www/us/en/employee/services-benefits.html</t>
-  </si>
-  <si>
-    <t>Intel Employee HR Services and Benefits</t>
-  </si>
-  <si>
-    <t>Intel is proud to offer you and your family a range of competitive benefits that help you achieve your personal best. For 2021, there are no increases in paycheck contributions, annual deductibles, or out-of-pocket maximums in health benefits. This makes it an ideal year to explore other benefits available to you such as the new dental option, life insurance, critical illness, and more. We’re offering more choices for dental coverage with a new dental HMO administered by Delta Dental, available to all U.S. blue badge employees and eligible family members.
-The Work Number® is a workforce verification solution that allows you or a third party, such as a broker or lender, to obtain written employment verification and proof of income from your employment. Through The Work Number, verifying agencies are able to access your information quickly and easily online. To process your request, you’ll need your date of hire, current employment status, and job title.</t>
-  </si>
-  <si>
-    <t>hire employment health benefits</t>
-  </si>
-  <si>
-    <t>Intel is proud to offer you and your family a range of competitive benefits that help you achieve your personal best. For 2021, there are no increases in paycheck contributions, annual deductibles, or out-of-pocket maximums in health benefits. This makes it an ideal year to explore other benefits available to you such as the new dental option, life insurance, critical illness, and more. We’re offering more choices for dental coverage with a new dental HMO administered by Delta Dental, available to all U.S. blue badge employees and eligible family members.</t>
-  </si>
-  <si>
-    <t>https://blogs.intel.com/jobs/2016/10/get-know-6-secret-intel-u-s-benefits/</t>
-  </si>
-  <si>
-    <t>Get to know 6 ‘secret’ Intel U.S. benefits - We Are Intel</t>
-  </si>
-  <si>
     <t>blog jobs</t>
   </si>
   <si>
-    <t>I work in recruitment marketing and every so often I get to drop in on new employee orientation sessions.  It’s always fun to talk to new employees during their first week at Intel.  Being that I’m in Arizona, topics that always seem to come up are the dry heat and where they can go to get great Mexican food.  Being that food is one of my favorite pastimes, I’m always happy to suggest my favorites.
-Intel Education Service Corp, otherwise known as IESC, is a favorite among employee benefits.  You can apply to be a part of a team that travels to developing nations for three weeks at a time to enable Intel technology.  The individuals picturedtraveled to Rwanda for their adventure.  By bringing Intel technology into the classroom to help enhance the teaching and learning experience, they were enabling the true digital classroom!
-Sign up for our talent communityto get great articles and job opportunities sent straight to your inbox.
-Raj is the North America Recruitment Marketing Lead.  Came to Intel in 1997 as a Software Engineer and ever since then, he has been trying to find a job with the longest title ever.  We think he found it.  His claim to fame is that he produced and co-wrote a commercial that played in the Super Bowl called Doritos Time Machine.
-Connect with Raj:
-LinkedIn: https://www.linkedin.com/profile/view?id=8107279
-Twitter: https://twitter.com/RajAtIntel
-Hi Ron – while this blog is specifically about US Benefits we have a vast amount of benefits around the globe. For more info about our benefits overall, feel free to check outhttp://www.intel.com/content/www/us/en/jobs/benefits.html</t>
-  </si>
-  <si>
-    <t>employee benefits job recruitment opportunities jobs</t>
-  </si>
-  <si>
-    <t>I work in recruitment marketing and every so often I get to drop in on new employee orientation sessions.  It’s always fun to talk to new employees during their first week at Intel.  Being that I’m in Arizona, topics that always seem to come up are the dry heat and where they can go to get great Mexican food.  Being that food is one of my favorite pastimes, I’m always happy to suggest my favorites.</t>
-  </si>
-  <si>
-    <t>https://www.intel.com/content/www/us/en/employee/leaving-intel.html</t>
-  </si>
-  <si>
-    <t>Leaving Intel</t>
-  </si>
-  <si>
-    <t>Welcome to the U.S. leaving Intel web site. This site contains key information regarding final pay and benefits for employees whose employment with Intel has ended.
-If your employment with Intel ends, you will receive payment, at your final rate of pay, for any vacation you have earned but not taken. Earned, unused floating holiday(s) will be paid out upon termination for California employees only.
-If your employment with Intel ends, any unused PA will be paid out. PA time is converted to cash as follows:
-It is your responsibility to understand the impact terminating your employment has on your stock benefits, including the expiration rules and associated dates for each of your grants. To review the details of your stock account with a E*TRADE representative, call (800) 838-0908.
-If you terminate employment with Intel before the end of a subscription period, you will receive a full refund of your ESPP contributions for that period within 2-4 pay periods after your termination. Stock will not be purchased for you, and you will not receive interest on the money you contributed to the Employee Stock Purchase Plan for that period.
-Information and claim forms are available on theMy Health Benefitswebsite or contact an Intel Health Benefits Center Representative at (877) GoMyBen (877-466-9236).
-Life insurance coverage ends at midnight on the last day of the month in which your employment ends.
-Short Term (STD) and Long Term Disability (LTD)
-Intel STD and LTD insurance end at midnight on your last day of employment. Find more information at theMy Health Benefitsweb site or contact an Intel Health Benefits Center Representative at (877) GoMyBen (877-466-9236).
-Disability claims established prior to termination will be paid if they continue to meet plan provisions.
-If your decision to leave Intel is due to a permanent disability, you will need to understand the differences in benefits that may be available to you. To find more information contact Reed Group at (866) 532-5664.</t>
-  </si>
-  <si>
-    <t>health employment benefits disability</t>
-  </si>
-  <si>
     <t>disability hiring</t>
-  </si>
-  <si>
-    <t>Welcome to the U.S. leaving Intel web site. This site contains key information regarding final pay and benefits for employees whose employment with Intel has ended.</t>
   </si>
   <si>
     <t>https://newsroom.intel.com/editorials/intels-2017-diversity-inclusion-midyear-report-road-ahead-behind/</t>
@@ -902,9 +781,6 @@
   </si>
   <si>
     <t>inclusion representation diverse inclusive diversity hiring</t>
-  </si>
-  <si>
-    <t>At CES in 2015, our CEO, Brian Krzanich, announcedIntel’s plan to achieve full representationof women and underrepresented minorities in our U.S. workforce by the year 2020. This is important to us because we believe diverse and inclusive teams with diverse perspectives are more creative and innovative.</t>
   </si>
   <si>
     <t>https://newsroom.intel.com/editorials/intels-continued-commitment-transparency-equity-all-levels/</t>
@@ -1048,64 +924,7 @@
 If you are being considered for an interview, you may be contacted by an Intel recruiter to gather more information about your qualifications.</t>
   </si>
   <si>
-    <t>To enhance your chances of being selected for an interview or matched to an open position, we recommend that you:</t>
-  </si>
-  <si>
-    <t>https://blogs.cisco.com/diversity/honoring-leadership-advocating-for-team-members-with-disabilities</t>
-  </si>
-  <si>
     <t>Cisco</t>
-  </si>
-  <si>
-    <t>Honoring Leadership: Advocating for Team Members with Disabilities - Cisco Blogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Honoring Leadership: Advocating for Team Members with Disabilities
-Two Cisco leaders were just recognized withhigh honorsfor their advocacy of inclusion and diversity at Cisco and within the community – leadership that champions the needs of our team members and friends with disabilities.
-Greg Akers, senior vice president of Advanced Security Research and Government, andMayte Cubino Gonzalez,a technical services manager in Belgium, are co-recipients of this year’s Diversity Best Practices “Above and Beyond” award from theNetwork &amp; Affinity Leadership Congress (NALC). The NALC Diversity Award for Affinity Group Leadership is given to “individuals whose grit and determination has led to the creation, success and/or turnaround of their network/affinity group.”
-Greg is a long-time member of my team, as well as a close friend. He brings a perspective to the table that is often missing, and helps our entire team set a vision, make decisions, and execute plans that are more inclusive and represent all employees. As a CDAN executive sponsor since 2008, Greg is a coach, mentor, and role model who has inspired other Cisco employees to advocate for people with disabilities. In fact, he influenced Cisco’s IT organization to upgrade and integrate accessibility into the IT product lifecycle. Now, thanks to Greg’s efforts, all basic tools and applications that Cisco employees regularly use are being designed for accessibility.
-A frequent panel speaker for disability and accessibility, Greg showcases how Cisco assistive technologies such as WebEx, TelePresence, and IP phones empower a diverse workforce. He has also participated in Cisco’s Annual Veterans Corporate Technology Day that fostered hope, encouragement, and inspiration to transitioning military personnel and their spouses and caregivers. In 2013, he led Cisco’s first disability awareness initiative in the Asia Pacific region at Cisco’s Bangalore, India campus that brought together companies, business leaders, partners, and country leaders in the region for a “Disability Matters” conference. A year later, Cisco India was honored with the Universal Designs Award 2014 for assistive technology in the workplace category from India’s National Centre for Promotion of Employment for Disabled People.
-Mayte has worked tirelessly to promote understanding and consideration of hidden or invisible disabilities that are not necessarily evident, such as color blindness, dyslexia, autism, epilepsy, allergies, chronic fatigue, and more.
-Greg and Mayte believe people with disabilities have the skills and talent to make meaningful contributions within Cisco’s workplace, and their work to help advance employment opportunities and expectations for people with disabilities strengthens not only Cisco, but also our global economy and society.
-These two Cisco leaders personify Cisco’s vision of building an inclusive and diverse culture and environment where people with and without disabilities benefit from the intrinsic value of work and feel welcomed, valued, respected, and heard. We are lucky to work side-by-side with them, and Cisco is a better company as a result of their efforts.</t>
-  </si>
-  <si>
-    <t>autism inclusion diverse people blindness employment culture inclusive diversity disabilities disability accessibility disabled</t>
-  </si>
-  <si>
-    <t>Honoring Leadership: Advocating for Team Members with Disabilities</t>
-  </si>
-  <si>
-    <t>https://blogs.cisco.com/csr/cisco-networking-academy-empowers-the-disabled-in-sri-lanka</t>
-  </si>
-  <si>
-    <t>Cisco Networking Academy Empowers the Disabled in Sri Lanka - Cisco Blogs</t>
-  </si>
-  <si>
-    <t>blog csr</t>
-  </si>
-  <si>
-    <t>In 2001, the Employers’ Federation of Ceylon (EFC) launched theNetwork on Disability, a program designed to connect Sri Lanka’s disabled community to meaningful jobs. The EFC’sICT Training Center, which launched in 2009 with the support of the International Labour Organization (ILO), has empowered more than 160 disabled people with the IT and language skills training they’ll need to thrive in a digital world. The EFC’s objective is to develop the employability skills of people with diverse disabilities in Sri Lanka by embracing the vision of “productive employment through social harmony.”
-Gunaratne was recruited as a role model to the Network on Disability in 2001 as the first employee with a disability. Trained both locally and internationally to teach, promote, and develop IT skills for individuals with disabilities, Gunaratne has been nationally and internationally recognized. In addition to winning a Gold Medal at the Assembly for Women with Disabilities in Seoul, South Korea in 2011, she also received several coveted national awards in 2007, including the Keerthi Sri Lankabhimani Desha Bandu Award, the Zonta Woman Achiever, and Most Inspirational Woman on Special Skills of the Year. Gunaratne’s commitment to the betterment of the visually impaired in Sri Lanka is exemplary.
-The training center is fully equipped with more than 50 devices specially designed for individuals with disabilities as part of a collaboration with Curtin University of Technology in Australia and SLIIT (Sri Lanka Institute of Information Technology) Malabe. The programs are also recognized by the Tertiary and Vocational Education Commission (TVEC) and within the EFC membership, which consists of 620 companies.</t>
-  </si>
-  <si>
-    <t>visually diverse people impaired employment disabilities jobs disability disabled</t>
-  </si>
-  <si>
-    <t>In 2001, the Employers’ Federation of Ceylon (EFC) launched theNetwork on Disability, a program designed to connect Sri Lanka’s disabled community to meaningful jobs. The EFC’sICT Training Center, which launched in 2009 with the support of the International Labour Organization (ILO), has empowered more than 160 disabled people with the IT and language skills training they’ll need to thrive in a digital world. The EFC’s objective is to develop the employability skills of people with diverse disabilities in Sri Lanka by embracing the vision of “productive employment through social harmony.”</t>
-  </si>
-  <si>
-    <t>https://blogs.cisco.com/csr/employee-volunteers-initiate-creative-csr-activities-in-france</t>
-  </si>
-  <si>
-    <t>Employee Volunteers Initiate Creative CSR Activities in France - Cisco Blogs</t>
-  </si>
-  <si>
-    <t>Another meaningful accomplishment, from an inclusion perspective, is a 3-year agreement with the French government to help disabled people find jobs. The agreement focuses on 3 major topics: improving our actions to help disabled persons to stay employed, recruitment, and increasing our collaboration with the adapted sector in our region.</t>
-  </si>
-  <si>
-    <t>inclusion people recruitment jobs disabled</t>
   </si>
   <si>
     <t>https://www.cisco.com/c/en/us/about/careers/we-are-cisco.html</t>
@@ -1164,21 +983,6 @@
     <t>hire culture hiring jobs interview</t>
   </si>
   <si>
-    <t>Cisco makes huge investments to identify, interview, and hire the right candidates – on average, 3,400 each quarter. Making sure our new hires have a great experience between the offer letter and the first weeks at work is critical to make sure they don’t accept another offer – and that theythrive at Cisco.</t>
-  </si>
-  <si>
-    <t>https://blogs.cisco.com/tag/employee-engagement</t>
-  </si>
-  <si>
-    <t>employee engagement - Cisco Blogs</t>
-  </si>
-  <si>
-    <t>The workforce is aging and many organizations are having trouble recruiting younger talent. By the year 2025, Millennials will make up 75% of the workforce. Creating a familiar and engaging work environment is critical in attracting these young workers. The proliferation of mobile devices is driving major behavioral changes in the Millennial workforce. They expect anytime, anywhere access to anyone or anything.</t>
-  </si>
-  <si>
-    <t>recruiting</t>
-  </si>
-  <si>
     <t>https://www.cisco.com/c/m/en_us/about/careers/accessibility.html</t>
   </si>
   <si>
@@ -1193,36 +997,6 @@
   </si>
   <si>
     <t>Cisco is an equal employment opportunity employer. Consistent with applicable law, Cisco provides access and opportunities to those with disabilities. This commitment includes providing reasonable accommodation to individuals with disabilities and disabled veterans who seek to access the company's on-line application system. Cisco has made extensive efforts to ensure that its on-line application system is accessible to individuals with disabilities. However, if an applicant is unable to fully access the Cisco's on-line application system, Cisco will provide a reasonable accommodation.</t>
-  </si>
-  <si>
-    <t>https://jobs.cisco.com/jobs/ProjectDetail/Virtual-Sales-Specialist-Collaboration/1315288</t>
-  </si>
-  <si>
-    <t>Virtual Sales Specialist (VSS) - Collaboration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The  Collaboration group is one of Cisco’s fastest growing sales teams and  is the spring board for a rewarding career in Unified Communications.  The VSS role serves as the talent engine for Cisco Field Sales with  diverse and motivated teams that consistently deliver profitable  growth. 
- You  will discover a creative, flexible and award-winning working  environment (Fortunes #1 Best place to work 2 years running!) using the  latest Cisco technology to enable and empower you to perform to the very  best of your abilities. Our teams adapt to respond to market changes  and are all highly encouraged to give back to our local communities. 
- We  will ensure that individuals with disabilities are provided reasonable  accommodation to participate in the job application or interview  process, to perform essential job functions, and to receive other  benefits and privileges of employment. Please contact us to request  accommodation. 
- #WeAreCisco,  where each person is unique, but we bring our talents to work as a team  and make a difference powering an inclusive future for all. 
- But  “Digital Transformation” is an empty buzz phrase without a culture that  allows for innovation, creativity, and yes, even failure (if you learn  from it.) 
- Day  to day, we focus on the give and take. We give our best, give our egos a  break, and give of ourselves (because giving back is built into our  DNA.) We take accountability, bold steps, and take difference to heart.  Because without diversity of thought and a dedication to equality for  all, there is no moving forward. 
- So,  you have colorful hair? Don’t care. Tattoos? Show off your ink. Like  polka dots? That’s cool. Pop culture geek? Many of us are. Passion for  technology and world changing? Be you, with us! </t>
-  </si>
-  <si>
-    <t>diverse abilities employment culture inclusive disabilities diversity interview accommodation</t>
-  </si>
-  <si>
-    <t>The  Collaboration group is one of Cisco’s fastest growing sales teams and  is the spring board for a rewarding career in Unified Communications.  The VSS role serves as the talent engine for Cisco Field Sales with  diverse and motivated teams that consistently deliver profitable  growth.</t>
-  </si>
-  <si>
-    <t>https://jobs.cisco.com/jobs/ProjectDetail/Regional-Sales-Manager/1323501?source=Cisco+Jobs+Career+Site&amp;tags=CDC+Prof+sales-and-marketing</t>
-  </si>
-  <si>
-    <t>Cisco Jobs</t>
-  </si>
-  <si>
-    <t>We apologize, but the job you are trying to access is no longer accepting applications. Or an error occurred when trying to load this page. Please click Cisco Careers Home or Search Jobs to view other Cisco opportunities.</t>
   </si>
   <si>
     <t>https://www.cisco.com/c/en/us/about/careers/communities/students-and-new-graduates.html</t>
@@ -1237,38 +1011,6 @@
   </si>
   <si>
     <t>culture employer diversity</t>
-  </si>
-  <si>
-    <t>We're on a mission to be the industry leader and employer of choice for the next generation workforce.</t>
-  </si>
-  <si>
-    <t>https://community.cisco.com/t5/ip-telephony-and-phones/cisco-voice-l1-interview-questions-or-topics/td-p/2101917</t>
-  </si>
-  <si>
-    <t>Cisco Voice L1 interview questions or topics - Cisco Community</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I need help regarding my interview. Today i got call forCisco Voice L1 engineer. I have knowledge of cisco voice and i'm also CCNA certified.Please tell me what type of question they will ask or on which topics dey will concentrate for L1 position.</t>
-  </si>
-  <si>
-    <t>I need help regarding my interview. Today i got call forCisco Voice L1 engineer. I have knowledge of cisco voice and i'm also CCNA certified.Please tell me what type of question they will ask or on which topics dey will concentrate for L1 position.</t>
-  </si>
-  <si>
-    <t>https://jobs.cisco.com/jobs/ProjectDetail/BI-Data-Senior-Analyst-Collaboration-Sales/1315012</t>
-  </si>
-  <si>
-    <t>BI/Data Senior Analyst - Collaboration Sales</t>
-  </si>
-  <si>
-    <t>We will ensure that individuals with disabilities are provided reasonable accommodation to participate in the job application or interview process, to perform essential job functions, and to receive other benefits and privileges of employment. Please contact us to request accommodation.
-But “Digital Transformation” is an empty buzz phrase without a culture that allows for innovation, creativity, and yes, even failure (if you learn from it.)
-Day to day, we focus on the give and take. We give our best, we give our egos a break and we give of ourselves (because giving back is built into our DNA.) We take accountability, we take bold steps, and we take difference to heart. Because without diversity of thought and a commitment to equality for all, there is no moving forward.</t>
-  </si>
-  <si>
-    <t>employment culture disabilities diversity interview accommodation</t>
-  </si>
-  <si>
-    <t>We will ensure that individuals with disabilities are provided reasonable accommodation to participate in the job application or interview process, to perform essential job functions, and to receive other benefits and privileges of employment. Please contact us to request accommodation.</t>
   </si>
   <si>
     <t>https://www.microsoft.com/en-us/procurement/diversity-sep.aspx</t>
@@ -1308,26 +1050,6 @@
     <t>To enable employment diversity and inclusion, Microsoft Real Estate and Facilities (RE&amp;F) partners with vendors and employment agencies, creating job opportunities for people with intellectual/developmental disabilities (I/DD) at Microsoft facilities across the globe.</t>
   </si>
   <si>
-    <t>https://blogs.microsoft.com/blog/2015/08/05/the-employee-experience-at-microsoft-aligning-benefits-to-our-culture/</t>
-  </si>
-  <si>
-    <t>The employee experience at Microsoft: Aligning benefits to our culture - The Official Microsoft Blog</t>
-  </si>
-  <si>
-    <t>When I look at how rapidly the traditional workplace is changing, not just at Microsoft, but throughout business in general, I see a tremendous opportunity for companies to put a stake in the ground around what they believe in and what kind of culture they want to build together with employees. This is certainly the case with Microsoft, as we evolve our culture to one that embodies a growth mindset and that embraces diversity and inclusion.
-As we ask our employees to bring their “A” game to work every day to achieve our mission, we believe it’s our responsibility to create an environment where people can do their best work. A key component of this is supporting our employees with benefits that matter most to them. This is why today we’re announcing enhancements to our U.S. corporate employee benefits in three areas that employees consistently rank among the most important: having time to renew; saving for the future; and flexibility needed to spend time with new children.
-Today we provide eight weeks of fully paid maternity disability leave for new mothers, plus 12 weeks of Parental Leave for all parents of new children, of which four are paid and eight unpaid. For these parents to bring their best every day, they need time to take care of themselves and their family. In recognition of this, we are making some significant enhancements to our Parental Leave practices, effective Nov. 1, 2015.
-Specifically, we’re enhancing our paid Parental Leave to 12 weeks, paid at 100 percent, for all mothers and fathers of new children. For birth mothers, this is in addition to the eight weeks of maternity disability leave they currently receive, paid at 100 percent, enabling them to now take a total of 20 weeks of fully paid leave if they choose.
-Additionally, we’ll offer birth mothers an expanded opportunity to use Short-Term Disability Leave during the two weeks prior to their scheduled due date to manage the physical impact that often comes with late pregnancy and to prepare for the upcoming birth.
-The people of Microsoft truly are what make our company great. These changes are in direct support of the culture we aspire to have — one that allows people to build meaningful careers. We will continue to listen to employee feedback to establish benefits and build an overall employee experience that raises the bar in our industry, creates a more inclusive environment, and recognizes the importance of our people to the continued success of Microsoft.</t>
-  </si>
-  <si>
-    <t>employee benefits inclusion culture inclusive diversity disability</t>
-  </si>
-  <si>
-    <t>When I look at how rapidly the traditional workplace is changing, not just at Microsoft, but throughout business in general, I see a tremendous opportunity for companies to put a stake in the ground around what they believe in and what kind of culture they want to build together with employees. This is certainly the case with Microsoft, as we evolve our culture to one that embodies a growth mindset and that embraces diversity and inclusion.</t>
-  </si>
-  <si>
     <t>https://blogs.microsoft.com/on-the-issues/2019/07/12/the-power-of-inclusion-extending-our-learnings-from-the-supported-employment-program/</t>
   </si>
   <si>
@@ -1377,72 +1099,6 @@
     <t>“By having people with disabilities in the fabric of our company, [we’re] building in a diverse workforce that then represents the one billion people with disabilities out there,” said Lay-Flurrie, Microsoft’s chief accessibility officer. “We’re going to be building better products, better services, websites . . . anything we do will work across the spectrum of being human.”</t>
   </si>
   <si>
-    <t>https://news.microsoft.com/on-the-issues/2019/09/25/accessibility-supportability-anne-taylor/</t>
-  </si>
-  <si>
-    <t>‘We are at a crossroads’ – How Microsoft’s Accessibility team is making an impact that will be felt for generations – On the Issues</t>
-  </si>
-  <si>
-    <t>news support</t>
-  </si>
-  <si>
-    <t>When it comes to accessibility, Anne Taylor is not afraid to share her point of view. Serving as Director of Supportability in Microsoft’sAccessibilityprogram, she ensures the teams designing Microsoft products and services always consider people with disabilities. She helps engineers understand what does or doesn’t work from an end user’s perspective. Taylor brought her extensive accessibility advocacy experience and knowledge to Microsoft, helping to transform the company’s culture, when she joined in May 2015. During her first year at Microsoft, she became a key member of the Hackathon team that brought Microsoft’sSeeing AIapp to market. The app is designed to help people who, like Taylor, are blind, by using their smartphones to describe the world around them.
-“We are at a crossroads,” says Taylor. “If we are vigilant and intentional about creating inclusive technology, then tech will level the playing field. If tech doesn’t adopt accessibility as a cause, then I think people with disabilities will be in a worse condition than they were in the past.”
-At 7, she told her family in her native Thailand that she was determined to live and work in the United States. A scholarship to the Overbrook School for the Blind in Philadelphia helped her achieve that dream, and set her on a career path that would take her from high school and college in Kentucky to Baltimore to serve as the Director of Access Technology at theNational Federation of the Blind.
-It was during her tenure there that she met Jenny-Lay Flurrie, Microsoft’s Chief Accessibility Officer, who offered her the chance to be an agent of change within Microsoft. Taylor accepted the challenge knowing Microsoft’s senior leadership was supportive of, and enthusiastic about, accessibility as a part of the company’s guiding principles.
-When it comes to productivity and workforce advancement, there is no other company that has greater impact on individuals who want to stay productive, regardless of their disability, social status, nationality, gender or race.
-The unemployment rate among people with disabilities is so incredibly high – 70% among blind people in the U.S. and that is just one group in the disability community. Unemployment is exponentially higher than the national average across all disability segments. So, what better place for me than Microsoft to make sure people with disabilities are represented?
-I look at this with a “glass half-full” attitude and go back to the impact that Microsoft can have, especially when it comes to thought leadership. We can walk the walk as well as talk the talk, and give people an opportunity to succeed. We can do it by putting the needs of our customers first and be willing to take an uncompromising stand on accessibility as we bring more technology into the market.
-As we continue to pursue accessibility within our company, we can have an even greater impact across society through knowledge sharing.
-I don’t want to oversimplify – but it’s about people’s attitude to the differences among us. Companies should view disability as a strength. There are over 1 billion people with disabilities globally. Having people with disabilities within the fabric of any company helps ensure that all customers are represented.
-That’s especially important now with AI. It can either introduce unnecessary bias or truly represent the needs of people everywhere. Automation is coming in all areas of the workforce, and we need to ensure it doesn’t leave people with disabilities behind. Not too long ago, you could see people with disabilities work in both industrial and office settings. But now when you bring in automation – and you create more complex technology – it can create a gap. If we don’t treat accessibility in a systemic way, it will be hard to correct later.
-Microsoft’s President Brad Smith and co-author Carol Ann Browne make this point in theirNew York Times Best Seller “Tools and Weapons: The Promise and Perils of the Digital Age”: “When your technology changes the world, you bear a responsibility to help address the world that you have helped create.” That is the right sentiment, and that’s a responsibility I hope we all take with the understanding that accessibility and equal access to information is a right for everyone. A part of this responsibility is addressing the lack of technology training in the disability community. The entire industry can do more through implementing education programs for users of all levels to learn to properly use our technologies, and ultimately help decrease the unemployment gap.
-In “Tools and Weapons,” Microsoft recognizes it is in a unique position to do this. Everybody has a place in society and a sense of belonging. Our mission is to empower everyone on the planet to achieve more – including people with disabilities.
-Working alongside my colleagues from the various engineering teams, I bring the lens of people with disabilities to make sure our products are compliant with accessibility standards. But I want to go beyond compliant. I want to encourage, inspire and motivate teams to think outside the box and innovate with accessibility design as an essential component to any product or service. Let’s cut down on inefficiencies and other frictions, while at the same time creating technologies that are accessible, easy to learn, and have the lowest barrier of entry for everyone. In my discussions with partners across Microsoft, I often remind them that accessibility innovations are not reserved only for specialized assistive technology made for people with disabilities, but they are essential to every product that we create.
-There is a myth that accessibility impedes innovations, but history shows us the opposite is true. Innovations such as video captioning for the deaf to access television programs is now used in bars and restaurants everywhere for all people to use, and voice recognition technology developed in the late 1970s at Rehabilitation Medicine in New York for patients to operate their wheelchairs is now available in everyone’s phones and cars. These examples, among others, teach us that accessibility innovations can benefit us all.
-Specialized technologies made for and used by people with disabilities, in the industry it’s often called AT – assistive technology. I’d love to call it access technology instead. That’s an empowering term. For those partners who build their AT in Microsoft’s environment, the Accessibility team is maintaining close partnerships with them to provide proper support and encouragement, so that they can create AT that works well in Microsoft’s ecosystem.
-Another aspect of my work includes a lot of demonstrations, so I can show people exactly what works well and collaborate on opportunities to improve. Once I have opportunities to surface problems, then we can have meaningful discussions on topics like accessible design, user interface and how people with disabilities are using AT with Microsoft’s products. Accessibility technical excellence can only be achieved when designers and developers collaborate closely with end users with disabilities. We have been able to make progress because of the support from the various engineering teams that I have the privilege to work with. I am very thankful for their partnership and continued commitment.
-Step one is to hire people with disabilities in your company. A common phrase within our community is “nothing about us without us,” and having people with disabilities at the heart of the design and engineering process is key.
-Microsoft is not one of those companies and is not afraid of public-private partnerships in the right context when it comes to showing respect for humanity. You can see that with the thought leadership shown by Brad Smith and his team onprivacy regulationsandGDPR. I would love to see us playing the same role in accessibility standards and would invite other companies in too. We all have our customers’ interests at heart. Another area that we can do more is supporting third-party partnership. Our partners should know that accessibility is an essential value for Microsoft just like privacy and security. And we are eager to work with them to ensure that they can successfully create accessible products and services using our technology. If we are willing to partner with third parties without bringing accessibility into the discussion, we are not doing enough.
-There’s a lot we can do for people with disabilities who rely on alternative formatted content, such as Braille, to stay productive. For example, making graphical illustrations like charts and graphs accessible is still a very manual process. I am interested in whether we can use AI and computer vision to convert those assets into an accessible format to quickly assist users with real-time collaborations.
-If we are successful, we can help increase the number of students with disabilities who pursue science, technology, engineering and maths (STEM) subjects. That way we can increase the pipeline of new talent in this area for the tech industry. Mitigating the talent gap is an essential concept – one that Brad also touches upon in‘Tools and Weapons.’
-When given an opportunity, people with disabilities can be successful. And that is the impact Microsoft can have.
-For more on Microsoft’s commitment to inclusive products, services and design, visitMicrosoft Accessibilityand to learn about the the New York Times Best Seller Tools and Weapons: The Promise and the Peril of the Digital Age visitaka.ms/toolsandweaponsbook.And follow @MSFTIssueson Twitter.</t>
-  </si>
-  <si>
-    <t>hire accessible blind culture inclusive disabilities disability accessibility</t>
-  </si>
-  <si>
-    <t>When it comes to accessibility, Anne Taylor is not afraid to share her point of view. Serving as Director of Supportability in Microsoft’sAccessibilityprogram, she ensures the teams designing Microsoft products and services always consider people with disabilities. She helps engineers understand what does or doesn’t work from an end user’s perspective. Taylor brought her extensive accessibility advocacy experience and knowledge to Microsoft, helping to transform the company’s culture, when she joined in May 2015. During her first year at Microsoft, she became a key member of the Hackathon team that brought Microsoft’sSeeing AIapp to market. The app is designed to help people who, like Taylor, are blind, by using their smartphones to describe the world around them.</t>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/en-us/accessibility/supplier-toolkit-resources</t>
-  </si>
-  <si>
-    <t>Supplier Web Accessibility Tools | Microsoft Accessibility</t>
-  </si>
-  <si>
-    <t>As we pursue our mission of empowering every person on the planet, we want to share what we've learned about accessibility with our suppliers. Whether you are just starting out and need basic disability etiquette or want to test code to the latest standards, check out these helpful resources.
-With more than 1 billion people with disabilities in the world, Microsoft believes accessibility and inclusion are essential to delivering on our mission. Technology allows people to achieve more and helps strengthen education opportunities, while also facilitating inclusion for people with disabilities.
-These resources can be used to introduce accessibility concepts and are appropriate for anyone who manages, designs, edits, creates, or remediates digital assets.
-Microsoft is committed to providing equal hiring opportunities by making accessibility and inclusion a part of who we are.
-Microsoft strives to always make necessary accommodations for interviews and seeks to make the interviewing process inclusive for all.
-Events allow Microsoft to enhance and spread its accessibility guidelines and practices, resulting in a more inclusive world for everyone.
-Microsoft seeks to empower all people to achieve more with Microsoft technologies, including the more than 1 billion people in the world with disabilities.
-These role-based technical training resources provide documentation, tutorials, and information on implementing accessibility in design, development, and testing.
-PDF tagging (3 minute video) &gt;Color contrast (3 minute video) &gt;Bookmarks (2 minute video) &gt;Headings (3 minute video) &gt;Tables (2 minute video) &gt;Lists (3 minute video) &gt;Images (2 minute video) &gt;Reading order (3 minute video) &gt;Navigation links (3 minute video) &gt;Accessibility checker (2 minute video) &gt;
-Considering keyboard only users (2 minute video) &gt;Accessibility for Microsoft Store applications (3 minute video) &gt;Skip navigation (2 minute video) &gt;Language accessibility (2 minute video) &gt;Web accessibility tutorials &gt;
-Accessibility Insights &gt;Evaluating web accessibility &gt;Accessibility testing tools list &gt;
-Check out these general resources to learn more about accessibility.
-Explore specific accessibility guidelines for each social media platform.</t>
-  </si>
-  <si>
-    <t>accommodations inclusion hiring disabilities inclusive disability accessibility</t>
-  </si>
-  <si>
-    <t>As we pursue our mission of empowering every person on the planet, we want to share what we've learned about accessibility with our suppliers. Whether you are just starting out and need basic disability etiquette or want to test code to the latest standards, check out these helpful resources.</t>
-  </si>
-  <si>
     <t>https://www.microsoft.com/en-us/microsoft-365/business-insights-ideas/resources/phone-interview-questions-ask-new-hires</t>
   </si>
   <si>
@@ -1466,89 +1122,6 @@
     <t>Tempted to say “You’re hired!” to a job applicant that looks perfect on paper? Hold the phone! There are aspects of a candidate’s qualifications and personality that you can check during a phone interview.</t>
   </si>
   <si>
-    <t>https://newsroom.intel.com/news/intel-announces-expanded-paid-leave-benefits/</t>
-  </si>
-  <si>
-    <t>Intel Announces Expanded Paid Leave Benefits | Intel Newsroom</t>
-  </si>
-  <si>
-    <t>What’s New:Beginning Jan. 1, 2020, Intel is expanding U.S. paid leave benefits to better support employees during life’s critical moments. These changes are part of Intel’s holistic, comprehensive and inclusive benefit offerings.
-Why It Matters:These enhancements are part of Intel’s continued investment in benefits to support employee well-being. By enhancing its paid leave benefits, Intel allows employees to focus on their families and loved ones in times of need so they can return to work with the proper support. This makes Intel a better place to work for everyone.</t>
-  </si>
-  <si>
-    <t>inclusive benefits leave</t>
-  </si>
-  <si>
-    <t>What’s New:Beginning Jan. 1, 2020, Intel is expanding U.S. paid leave benefits to better support employees during life’s critical moments. These changes are part of Intel’s holistic, comprehensive and inclusive benefit offerings.</t>
-  </si>
-  <si>
-    <t>https://newsroom.intel.com/latest-news/</t>
-  </si>
-  <si>
-    <t>Newsroom Home</t>
-  </si>
-  <si>
-    <t>Intel announces the appointment of Dawn Jones as chief diversity and inclusion officer and vice president of social impact.
-Artificial intelligence developer team designs a voice-activated backpack that can help the visually impaired navigate.
-Intel releases 2020 Diversity and Inclusion Report and pay data, charts way to meaningful progress with new Inclusion Index.
-Intel has invested more than $16 billion in New Mexico and grown to be its largest industrial employer.
-Intel and Accenture support a project to develop a wheelchair-mounted robotic arm to assist patients with spinal injuries.
-Intel study assesses Gen Z's expectations on diversity, their experiences of bias and how these contribute to career paths.</t>
-  </si>
-  <si>
-    <t>employer wheelchair inclusion visually impaired diversity</t>
-  </si>
-  <si>
-    <t>Intel announces the appointment of Dawn Jones as chief diversity and inclusion officer and vice president of social impact.</t>
-  </si>
-  <si>
-    <t>https://www.intel.com/content/www/us/en/jobs/jobs-at-intel.html</t>
-  </si>
-  <si>
-    <t>Careers at Intel</t>
-  </si>
-  <si>
-    <t>We hold ourselves accountable for being customer obsessed, inclusive, and fearless, with a critical focus on quality and acting as one company.
-Curious about our hiring process or how to prepare for an interview? You can find answers to these questions and much more at our candidate help desk.</t>
-  </si>
-  <si>
-    <t>hiring interview inclusive</t>
-  </si>
-  <si>
-    <t>We hold ourselves accountable for being customer obsessed, inclusive, and fearless, with a critical focus on quality and acting as one company.</t>
-  </si>
-  <si>
-    <t>https://newsroom.intel.com/editorials/intel-rule-action-improve-diversity-legal-profession/</t>
-  </si>
-  <si>
-    <t>The Intel Rule: Action to Improve Diversity in the Legal Profession | Intel Newsroom</t>
-  </si>
-  <si>
-    <t>In 2004, Intel joined more than 100 other corporations to call for concrete action to promote diversity in the legal profession. That declaration reflected the shared recognition by Intel and our peers that “the legal and business interests of our clients require legal representation that reflects the diversity of our employees, customers and the communities where we do business.” We pledged to “make decisions regarding which law firms represent our companies based in significant part on the diversity performance of the firms” and “to end or limit our relationships with firms whose performance consistently evidences a lack of meaningful interest in being diverse.” We earnestly believed that our call to action would prompt meaningful change in the legal profession and increase the number of women and minority attorneys representing Intel as outside counsel.
-Fifteen years have passed since that call to action, and many corporations and law firms have made progress. At Intel today, we believe our outside counsel roster is among corporate America’s most diverse, and we regularly partner with our outside firms to provide opportunities to diverse lawyers, to set challenging representation goals and to award bonuses for outstanding progress. Over the years, we and our law firm partners have pioneered or adopted nearly every available tool to increase the diversity of our legal teams, including mentoring programs and clerkships. These improvements are part and parcel with Intel’s values-driven desire to become the world’s most inclusive company – a goal we support with our time, talents and resources. For example, in 2015 we set a goal to reach full market representation of women and underrepresented minorities in our U.S. workforce by 2020. We committed $300 million to achieve this goal and to support the broader goal of improving diversity and inclusion in the entire technology industry. We achieved full market representation of women and underrepresented minorities in our U.S. workforce in 2018, two years ahead of schedule.
-We believe that driving real progress in the legal profession’s diversity requires taking risk and being audacious, in the best spirit of Moore’s Law. In fact, we need a Moore’s Law of diversity in the legal profession and, even more, we need the fearlessness that goes with it. Today, we are taking a step toward that ambition by announcing something we call the Intel Rule:
-Beginning Jan. 1, 2021, Intel will not retain or use outside law firms in the U.S. that are average or below average on diversity. Firms are eligible to do legal work for Intel only if, as of that date and thereafter, they meet two diversity criteria: at least 21% of the firm’s U.S. equity partners are women and at least 10% of the firm’s U.S. equity partners are underrepresented minorities (which, for this purpose, we define as equity partners whose race is other than full white/Caucasian, and partners who have self-identified as LBGTQ+, disabled or as veterans).
-The Intel Rule adds above-average diversity to a small list of mandatory items we require from every lawyer in every retention: results, value, professionalism and diversity. We understand that doing this may deny to us the services of many highly skilled lawyers, perhaps including the services of some law firms with which we have worked for decades. But Intel cannot abide the current state of progress – it is not enough, and progress is not happening fast enough. At Intel, below average and average on diversity is no longer good enough to be a member of our regular outside counsel roster.
-Initially, our diversity criteria will focus on equity partners. As many firms now have multiple tiers of equity partners, over time we intend to develop the data necessary to adopt and apply diversity criteria based only on the top tier of equity partners at firms. We also intend to develop the data necessary to apply our diversity criteria to firms worldwide. And, we will regularly increase our required percentages so that Intel is always using firms that are at the forefront of our profession’s progress on diversity.
-In full candor, our internal discussions about the Intel Rule have not been without debate, even among those most passionate about diversity. There may be instances where a real need for a specialty, relationship or lawyer (for example, a local counsel relationship) requires us to depart from the Intel Rule, but we will make such exceptions rarely and only after determining that no suitable diverse firm is available. In the area of patent prosecution, which presents distinct challenges in the area of gender diversity, we will make appropriate adjustments to balance our goal to drive greater diversity in the legal profession with our needs for specialized (and sometimes unique) technical skills.
-Today, we call on corporate law departments to also renew our shared commitments to take concrete steps to develop and hire diverse outside teams. At Intel, we pledge our more than $300 million in annual outside counsel spending to this goal, in the belief that by declining to hire firms that are average or below average on diversity will spur the progress our profession needs to bring about change now, not in 50 years – an effort worthy of the spirit of Moore’s Law.</t>
-  </si>
-  <si>
-    <t>hire inclusion representation diverse inclusive diversity</t>
-  </si>
-  <si>
-    <t>In 2004, Intel joined more than 100 other corporations to call for concrete action to promote diversity in the legal profession. That declaration reflected the shared recognition by Intel and our peers that “the legal and business interests of our clients require legal representation that reflects the diversity of our employees, customers and the communities where we do business.” We pledged to “make decisions regarding which law firms represent our companies based in significant part on the diversity performance of the firms” and “to end or limit our relationships with firms whose performance consistently evidences a lack of meaningful interest in being diverse.” We earnestly believed that our call to action would prompt meaningful change in the legal profession and increase the number of women and minority attorneys representing Intel as outside counsel.</t>
-  </si>
-  <si>
-    <t>https://simplecore.intel.com/newsroom/news-releases/idm-manufacturing-innovation-product-leadership/</t>
-  </si>
-  <si>
-    <t>Intel CEO Announces ‘IDM 2.0’ Strategy for Manufacturing, Innovation,...</t>
-  </si>
-  <si>
-    <t>This build-out represents an investment of approximately $20 billion, which is expected to create over 3,000 permanent high-tech, high-wage jobs; over 3,000 construction jobs; and approximately 15,000 local long-term jobs. Today, Arizona Gov. Doug Ducey and U.S. Secretary of Commerce Gina Raimondo participated with Intel executives in the announcement. Gelsinger commented: “We are excited to be partnering with the state of Arizona and the Biden administration on incentives that spur this type of domestic investment.” Intel expects to accelerate capital investments beyond Arizona, and Gelsinger said he plans to announce the next phase of capacity expansions in the U.S., Europe and other global locations within the year.</t>
-  </si>
-  <si>
     <t>https://www.cisco.edu/about/offices/human-resources/new-employees</t>
   </si>
   <si>
@@ -1576,111 +1149,6 @@
   </si>
   <si>
     <t>Welcome to the Cisco College Employment page! Please review our available opportunities below, and see if we have a place for you. The college is an equal opportunity employer, and we are always searching to fill our posted positions with dedicated, resourceful people.</t>
-  </si>
-  <si>
-    <t>https://news-blogs.cisco.com/apjc/2020/02/03/cisco-top-trends-for-2020/?oid=psten020477</t>
-  </si>
-  <si>
-    <t>Cisco Top Trends for 2020 - The Cisco News Network - APJC</t>
-  </si>
-  <si>
-    <t>news blog</t>
-  </si>
-  <si>
-    <t>Enter a new form of capitalism that is more socially responsible. Some of these responsibilities will no longer be optional. For example, some governments will begin to take action on businesses who fail to act on climate risk. Governments will come under further pressure too. Corporate executives representing millions of workers globally have expressed support for the Paris agreement in order to avert catastrophic temperature rises. They argue that the battle against climate change would protect their nation’s economy and create jobs and businesses. If ignored, estimates suggest that the economic impact could be in the hundreds of billions of dollars, if not trillions. There are plenty of issues to deal with including the climate, carbon emission, waste (the circular economy), trust, diversity, equality and the social divide. Those that embrace social responsibility will enhance their brand and attract talent. In 2020 this issue will become more critical. There has never been a time in history that the planet has needed technology like it does today to help save itself and its inhabitants.
-Two revolutionary tools are overhauling healthcare as we know it today: genome sequencing and CRISPR* engineering. Sequencing the first human genome took about 13 years of research and over US $2.7 billion to complete. Today, it’s on its way to becoming a $100, one-hour-long process. The convergence of medical science, biotechnology and digital technologies is showing significant potential to improve well-being and reduce costs. As more patients are connected and more data is collected in real-time, systems will learn and become more intelligent, enabling even deeper insights and predictive analysis within and across communities. The possibilities include eliminating many diseases, hereditary conditions and disabilities but concurrently opens many deeper ethical questions that will need to be addressed.</t>
-  </si>
-  <si>
-    <t>jobs disabilities diversity</t>
-  </si>
-  <si>
-    <t>Enter a new form of capitalism that is more socially responsible. Some of these responsibilities will no longer be optional. For example, some governments will begin to take action on businesses who fail to act on climate risk. Governments will come under further pressure too. Corporate executives representing millions of workers globally have expressed support for the Paris agreement in order to avert catastrophic temperature rises. They argue that the battle against climate change would protect their nation’s economy and create jobs and businesses. If ignored, estimates suggest that the economic impact could be in the hundreds of billions of dollars, if not trillions. There are plenty of issues to deal with including the climate, carbon emission, waste (the circular economy), trust, diversity, equality and the social divide. Those that embrace social responsibility will enhance their brand and attract talent. In 2020 this issue will become more critical. There has never been a time in history that the planet has needed technology like it does today to help save itself and its inhabitants.</t>
-  </si>
-  <si>
-    <t>https://news-blogs.cisco.com/apjc/2020/04/29/its-not-about-disability-its-about-differences-and-different-strengths-we-bring-to-the-world/</t>
-  </si>
-  <si>
-    <t>“It’s not about disability, it’s about differences, and different strengths we bring to the world.” - The Cisco News Network - APJC</t>
-  </si>
-  <si>
-    <t>A diverse, inclusive and collaborative workplace is something we are proud of at Cisco. Diversity is about embracing differences, and enabling people to bring different strengths to work. There are a number ofinitiatives close to the hearts of employeeson missions to support inclusivity, and one in particular that has been working to generate awareness for the Australian and New Zealand (ANZ) chapter among employees, and support those who need the help, by being there.
-Cisco Disability Awareness Network (CDAN) &amp; Special Needs Children Group
-Led by a small group in ANZ, the Cisco Disability Awareness Network aims to drive greater awareness of disability, and create a more inclusive environment. The complimentary Special Needs Children Group works to generate awareness, and support parents with children of special needs by providing a community they can connect with, and seek support from, if they need it.
-By generating awareness for differences, it helps to destigmatise differences, helping with broader employment opportunities across Cisco. It means that people are more open to supporting someone who may have challenges, such as sight issues leading to updated signage.
-ForAutism Awareness Monthin April, the team shared a questionnaire to generate awareness for autism, and educate others. Last year, the Cisco offices (as well as virtual attendance) were open to acomedy show with comedians of all abilities, and in previous years the team have invited Cisco Executives to participate in Dining in the Dark, simulating what it may be like to be sight impaired to help drive conversations, and understand challenges and considerations.
-Helping people to connect with different backgrounds and experiences than their own is a key step to inclusivity. Embracing differences, and driving awareness for what a person may be going through, and embracing it as a positive message can be powerful for someone with a special needs child. There are also days such as ‘special kids at work’ day that are runacross Cisco globally, and Cisco offers ‘rethink’, a global benefit available to all Cisco employees, which supports special needs children with learning challenges.
-For Megan, an inclusive employer and community of peers with shared experiences really helps, as does a flexible working environment, and support from peers. “It allows me to be present in my role, and still support my family.” As an example, Megan used to work an hour a week from a learning support centre, so her son can get the lessons he needs.
-“The more we can destigmatise disability, and understand it’s viewed as a difference, and that can be a strength. People view the world in different ways, with different abilities.”
-Megan’s mission to make a better world continues, and she would like people to know that she is supported, and Cisco is a truly inclusive employer. “It’s one thing to have it listed on your website, and another to be it.”
-“It’s not about disability, it’s about differences, and different strengths we bring to the world. I feel that’s something we embrace at Cisco.”</t>
-  </si>
-  <si>
-    <t>employer inclusivity autism diverse abilities employment inclusive diversity disability</t>
-  </si>
-  <si>
-    <t>A diverse, inclusive and collaborative workplace is something we are proud of at Cisco. Diversity is about embracing differences, and enabling people to bring different strengths to work. There are a number ofinitiatives close to the hearts of employeeson missions to support inclusivity, and one in particular that has been working to generate awareness for the Australian and New Zealand (ANZ) chapter among employees, and support those who need the help, by being there.</t>
-  </si>
-  <si>
-    <t>https://news-blogs.cisco.com/emear/2021/03/29/out-of-sight-but-not-out-of-mind-employees-believe-strong-company-cultures-will-underpin-a-successful-hybrid-world-of-work/</t>
-  </si>
-  <si>
-    <t>Out of sight but not out of mind: Employees believe strong company culture will underpin hybrid world of work - Cisco News The EMEAR Network</t>
-  </si>
-  <si>
-    <t>UK employees spend on average half of their waking hours working[1], amplifying the importance of not only optimizing office and virtual workspaces, but building strong, inclusive organisational cultures too. While many remote workers feel empowered and trusted by their managers and teams to do the job at hand, there are still a significant minority who are concerned about being left behind. One-in-six do not feel trusted to do their job from home, without extensive oversight, and whilst half of the workforce feel recognised,the other half believe their achievements are being overlooked.
-David Meads, Chief Executive, Cisco UK &amp; Irelandsaid: “People choose an employer for many reasons, but they buy in to a company for its culture and its values. As we continue to work from home and navigate the challenges and opportunities of shifting to remote and hybrid working, we have to be inclusive, taking everyone on the journey with us. We must take extra steps to ensure that everyone feels invested in, and technology will play a vital role in ensuring that dispersed employees and teams feel connected.”
-About CiscoCisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more on The Network and follow us on Twitter at @Cisco</t>
-  </si>
-  <si>
-    <t>culture employer inclusive</t>
-  </si>
-  <si>
-    <t>UK employees spend on average half of their waking hours working[1], amplifying the importance of not only optimizing office and virtual workspaces, but building strong, inclusive organisational cultures too. While many remote workers feel empowered and trusted by their managers and teams to do the job at hand, there are still a significant minority who are concerned about being left behind. One-in-six do not feel trusted to do their job from home, without extensive oversight, and whilst half of the workforce feel recognised,the other half believe their achievements are being overlooked.</t>
-  </si>
-  <si>
-    <t>https://gblogs.cisco.com/uki/how-ciscos-flexible-working-culture-is-driving-inclusion-and-employee-engagement/</t>
-  </si>
-  <si>
-    <t>How Cisco’s flexible working culture is driving inclusion and employee engagement</t>
-  </si>
-  <si>
-    <t>As I approach my 20thanniversary of working at Cisco, I have been reflecting on how the culture here contributes to work being something thatI do(and enjoy!), rather than a place thatI goto5 days-a-week.
-Over the past year at Cisco, we’ve been working hard to ensure that our people-centric culture is ensuring that we are as inclusive as possible, and attractive to a diverse range of talent.  We set ourselves the audacious goal of reaching the National Equality Standard (NES). This involved a deep inspection of our policies and practices, independently conducted by Ernst and Young (E&amp;Y).  The E&amp;Y team identified a majority of strengths, as well as a few areas for improvement. From this feedback, Cisco UK&amp;I created a cross-functional Inclusive Leadership Team and built a plan.
-The plan leverages work by our Employee Organisations around gender, generation, disability, sexual orientation and ethnicity. Just 6 months on, we are already seeing tangible results and recognition for the hard work that this team and the wider community of Inclusion and Collaboration (I&amp;C) ambassadors have put in.
-As we travel through our working lives, the demands upon us shift and change as life throws out a variety of challenges. Whether it’s parenthood, caring for elderly family members, or simply being at home to receive a delivery – the flexibility afforded by Cisco to its employees allows us to make the choices of where and when we work. As a Cisco employee it’s sometimes easy to take this flexibility for granted, but in my role as the lead for Inclusion at Cisco UK&amp;I, I’ve seen the full scope of what our working culture means to employees’ lives.
-Whether supporting colleagues juggling childcare or eldercare responsibilities, recovering from physical or mental illness, sickness or injury: the ability to work flexibly has still allowed them to continue to deliver their knowledge and expertise in their jobs. The bottom line is that Cisco’s flexible working practices drive employee engagement and loyalty, whilst ultimately allowing us to retain and develop talent – rather than let it slip away.
-There’s never been a better time to set the standard for inclusion and collaboration. At Cisco UK&amp;I, this goes way beyond an HR program: it’sembeddedinto our culture. It’s this culture that gives Cisco the edge – an edge that drives our innovation and helps propel us towards being the greatest IT company in the world.</t>
-  </si>
-  <si>
-    <t>inclusion diverse culture inclusive jobs disability</t>
-  </si>
-  <si>
-    <t>As I approach my 20thanniversary of working at Cisco, I have been reflecting on how the culture here contributes to work being something thatI do(and enjoy!), rather than a place thatI goto5 days-a-week.</t>
-  </si>
-  <si>
-    <t>https://gblogs.cisco.com/be/hackforgoodhackathon/</t>
-  </si>
-  <si>
-    <t>Cisco’s first HackforGood hackathon has been an overwhelming success</t>
-  </si>
-  <si>
-    <t>Following the different pitches and subsequent Q&amp;A session, the jury chose project PIMS of CRETH and Cisco partners Proximus and Telindus Luxembourg as the most impactful and scalable project. CRETH is a Resource and Technology Assessment Center for Persons with Disabilities. The team’s dream was to create a uniform communication and control platform, allowing disabled persons to be more independent in their daily life.
-Together with Proximus, CRETH came to the conclusion that existing features in a digital TV (like being  able to pause your programme) are not accessible to disabled people who are using another interface to control their TV, and that any change to the settings are causing service disruption. But this also goes for other applications, be it Netflix, communication services like video, messaging or social media, smart lighting or other home automation apps. For disabled persons, the access to digital services shouldn’t be disrupted by technology and settings changes.
-Project PIMS will be powered by an intermediate cloud-based platform delivering entertainment, communication and home automation services using commercial devices such as TVs, computers, smartphones and automation control systems. That platform is to certain extent an intelligent, digital assistant within a disabled person’s home.
-All these integration efforts will be facilitated by the first universal digital accessibility charter that will incentivize all digital device manufacturers and service providers to offer and maintain accessibility options to disabled people. Such a Universal Digital Accessibility Charter does not exist yet, and the team wants to work on its development in the coming weeks – alongside the development of a platform prototype targeting a first set of services.
-An innovation hackathon contributes at the same time to personal development, and to the success of an employer and its CSR program. After all, our partners contributed to a social transition, with concrete solutions to social challenges. We are very much looking forward to the realisation of the prototyped solutions ! Our partners have all agreed to the further development of it, so that the innovation plans do not remain a dead letter.</t>
-  </si>
-  <si>
-    <t>employer people accessible person disabilities accessibility disabled</t>
-  </si>
-  <si>
-    <t>Following the different pitches and subsequent Q&amp;A session, the jury chose project PIMS of CRETH and Cisco partners Proximus and Telindus Luxembourg as the most impactful and scalable project. CRETH is a Resource and Technology Assessment Center for Persons with Disabilities. The team’s dream was to create a uniform communication and control platform, allowing disabled persons to be more independent in their daily life.</t>
-  </si>
-  <si>
-    <t>https://jobs.cisco.com/</t>
-  </si>
-  <si>
-    <t>Visit your profile to update your resume, apply to saved jobs, or view status on your job activity.</t>
   </si>
   <si>
     <t>https://sway.office.com/ZIetX05BXMPoBLHk</t>
@@ -1771,7 +1239,39 @@
     <t>hired accommodations autism inclusive jobs accessibility accommodation recruit employee abilities job diversity opportunities disability hire recruiting inclusion employment group interview employer accessible culture hiring disabilities resource erg</t>
   </si>
   <si>
-    <t>opportunities, and make the workplace more inviting and inclusive for people with</t>
+    <t>This October marks 75 years of National Disability Employment Awareness Monthin the U.S. – with increasing access and opportunity as this year’s theme.</t>
+  </si>
+  <si>
+    <t>It turned out her background-blurring feature was good for privacy reasons as well, helping to hide messy offices during video conference calls or curious café customers during job interviews. So Machanavajhala was one of the people who influenced the decision to develop similar features for Microsoft Teams andSkype, and she soon found herself catapulted into the spotlight at Microsoft – as well as into the company’s work on inclusion, a joy to experience after having been excluded at a previous job where her deafness made it hard to fully participate.</t>
+  </si>
+  <si>
+    <t>Today, we released our annual diversity and inclusion report, including U.S. disability representation for the first time.</t>
+  </si>
+  <si>
+    <t>October at Microsoft brings falling leaves, steaming cups of pumpkin flavored drinks, the occasional ghostly costume. Most importantly October brings the 75th Anniversary of National Disability Employment Awareness Month (NDEAM) and the chance to reflect on employment for talent with disabilities.</t>
+  </si>
+  <si>
+    <t>At CES in 2015, our CEO, Brian Krzanich, announced Intel’s plan to achieve full representation of women and underrepresented minorities in our U.S. workforce by the year 2020. This is important to us because we believe diverse and inclusive teams with diverse perspectives are more creative and innovative.</t>
+  </si>
+  <si>
+    <t>If you are being considered for an interview, you may be contacted by an Intel recruiter to gather more information about your qualifications.</t>
+  </si>
+  <si>
+    <t>Cisco makes huge investments to identify, interview, and hire the right candidates – on average, 3,400 each quarter. Making sure our new hires have a great experience between the offer letter and the first weeks at work is critical to make sure they don’t accept another offer – and that they thrive at Cisco.</t>
+  </si>
+  <si>
+    <t>We take difference to heart and celebrate the diversity that fuels our innovation. Colorful hair? Don’t care. Tattoos? Show off your ink. Pop culture geek? Many of us are.</t>
+  </si>
+  <si>
+    <t>Technology can empower people to achieve more, help strengthen education
+opportunities, and make the workplace more inviting and inclusive for people with
+disabilities. And with more than one billion people with disabilities in the world, Microsoft
+believes accessibility and inclusion are essential to delivering on our mission to
+empower every person and every organization on the planet to achieve more.
+ We are on a journey and continue to learn and grow as we move forward. We hope by
+sharing what we've learned, other organizations can build out and accelerate their
+disability inclusion programs, hire great talent, and reduce the unemployment rate for
+people with disabilities.  Game on!</t>
   </si>
 </sst>
 </file>
@@ -1792,18 +1292,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1838,7 +1332,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2141,16 +1637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="130.7265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2185,7 +1678,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -2208,7 +1701,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -2234,7 +1727,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
@@ -2257,7 +1750,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
@@ -2280,7 +1773,7 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
@@ -2306,7 +1799,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
@@ -2332,7 +1825,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
@@ -2348,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2361,6 +1854,9 @@
       <c r="C9" t="s">
         <v>48</v>
       </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
@@ -2368,24 +1864,24 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
@@ -2410,6 +1906,9 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" t="s">
         <v>60</v>
       </c>
@@ -2417,23 +1916,20 @@
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>64</v>
       </c>
       <c r="E12" t="s">
@@ -2456,11 +1952,11 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
         <v>70</v>
@@ -2477,149 +1973,155 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>74</v>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>88</v>
+      <c r="C17" t="s">
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>93</v>
+      <c r="C18" t="s">
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>98</v>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2629,11 +2131,11 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>104</v>
@@ -2645,99 +2147,93 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
         <v>113</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>114</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>115</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" t="s">
-        <v>120</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>124</v>
@@ -2757,22 +2253,19 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
         <v>128</v>
       </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
       <c r="E25" t="s">
         <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
         <v>129</v>
@@ -2780,1241 +2273,507 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
         <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
         <v>172</v>
       </c>
-      <c r="B34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
         <v>173</v>
       </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>174</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
         <v>175</v>
-      </c>
-      <c r="G34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
         <v>177</v>
       </c>
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" t="s">
         <v>178</v>
       </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>179</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
         <v>180</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
         <v>182</v>
       </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
         <v>183</v>
       </c>
-      <c r="D36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>184</v>
       </c>
-      <c r="F36" t="s">
-        <v>185</v>
-      </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
         <v>187</v>
       </c>
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" t="s">
         <v>189</v>
       </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>190</v>
       </c>
-      <c r="G37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="F38" t="s">
         <v>193</v>
       </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" t="s">
-        <v>195</v>
-      </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" t="s">
         <v>197</v>
       </c>
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
         <v>198</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" t="s">
         <v>202</v>
       </c>
-      <c r="B40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="F40" t="s">
         <v>203</v>
       </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
         <v>204</v>
-      </c>
-      <c r="F40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
         <v>206</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="F41" t="s">
         <v>208</v>
-      </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" t="s">
-        <v>210</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" t="s">
         <v>212</v>
       </c>
-      <c r="B42" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="F42" t="s">
         <v>213</v>
-      </c>
-      <c r="D42" t="s">
-        <v>214</v>
-      </c>
-      <c r="E42" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" t="s">
-        <v>216</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" t="s">
         <v>218</v>
       </c>
-      <c r="B43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" t="s">
-        <v>221</v>
-      </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" t="s">
         <v>222</v>
       </c>
-      <c r="B44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" t="s">
         <v>223</v>
       </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>224</v>
       </c>
-      <c r="F44" t="s">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
         <v>225</v>
       </c>
-      <c r="G44" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="E45" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="F45" t="s">
         <v>227</v>
       </c>
-      <c r="B45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E45" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" t="s">
-        <v>230</v>
-      </c>
       <c r="G45" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" t="s">
-        <v>235</v>
-      </c>
-      <c r="G46" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" t="s">
-        <v>239</v>
-      </c>
-      <c r="F47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G48" t="s">
-        <v>165</v>
-      </c>
-      <c r="H48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" t="s">
-        <v>247</v>
-      </c>
-      <c r="D49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" t="s">
-        <v>248</v>
-      </c>
-      <c r="F49" t="s">
-        <v>249</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>251</v>
-      </c>
-      <c r="B50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>254</v>
-      </c>
-      <c r="B51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" t="s">
-        <v>256</v>
-      </c>
-      <c r="F51" t="s">
-        <v>257</v>
-      </c>
-      <c r="G51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>259</v>
-      </c>
-      <c r="B52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E52" t="s">
-        <v>261</v>
-      </c>
-      <c r="F52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>263</v>
-      </c>
-      <c r="B53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>264</v>
-      </c>
-      <c r="D53" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" t="s">
-        <v>266</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>268</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E54" t="s">
-        <v>270</v>
-      </c>
-      <c r="F54" t="s">
-        <v>271</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>273</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="s">
-        <v>275</v>
-      </c>
-      <c r="F55" t="s">
-        <v>276</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D56" t="s">
-        <v>280</v>
-      </c>
-      <c r="E56" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>284</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" t="s">
-        <v>286</v>
-      </c>
-      <c r="F57" t="s">
-        <v>287</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>289</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D58" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" t="s">
-        <v>293</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>295</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E59" t="s">
-        <v>297</v>
-      </c>
-      <c r="F59" t="s">
-        <v>298</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>300</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E60" t="s">
-        <v>302</v>
-      </c>
-      <c r="F60" t="s">
-        <v>303</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>305</v>
-      </c>
-      <c r="B61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" t="s">
-        <v>308</v>
-      </c>
-      <c r="G61" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>310</v>
-      </c>
-      <c r="B62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D62" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" t="s">
-        <v>312</v>
-      </c>
-      <c r="F62" t="s">
-        <v>313</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>315</v>
-      </c>
-      <c r="B63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" t="s">
-        <v>317</v>
-      </c>
-      <c r="F63" t="s">
-        <v>318</v>
-      </c>
-      <c r="G63" t="s">
-        <v>91</v>
-      </c>
-      <c r="H63" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>320</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" t="s">
-        <v>323</v>
-      </c>
-      <c r="G64" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>325</v>
-      </c>
-      <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D65" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" t="s">
-        <v>327</v>
-      </c>
-      <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>328</v>
-      </c>
-      <c r="B66" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E66" t="s">
-        <v>330</v>
-      </c>
-      <c r="F66" t="s">
-        <v>331</v>
-      </c>
-      <c r="G66" t="s">
-        <v>51</v>
-      </c>
-      <c r="H66" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>332</v>
-      </c>
-      <c r="B67" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E67" t="s">
-        <v>334</v>
-      </c>
-      <c r="F67" t="s">
-        <v>335</v>
-      </c>
-      <c r="G67" t="s">
-        <v>165</v>
-      </c>
-      <c r="H67" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>337</v>
-      </c>
-      <c r="B68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68" t="s">
-        <v>339</v>
-      </c>
-      <c r="E68" t="s">
-        <v>340</v>
-      </c>
-      <c r="F68" t="s">
-        <v>341</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>343</v>
-      </c>
-      <c r="B69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D69" t="s">
-        <v>339</v>
-      </c>
-      <c r="E69" t="s">
-        <v>345</v>
-      </c>
-      <c r="F69" t="s">
-        <v>346</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>348</v>
-      </c>
-      <c r="B70" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D70" t="s">
-        <v>339</v>
-      </c>
-      <c r="E70" t="s">
-        <v>350</v>
-      </c>
-      <c r="F70" t="s">
-        <v>351</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
-      <c r="H70" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B71" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71" t="s">
-        <v>356</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>358</v>
-      </c>
-      <c r="B72" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" t="s">
-        <v>360</v>
-      </c>
-      <c r="F72" t="s">
-        <v>361</v>
-      </c>
-      <c r="G72" t="s">
-        <v>165</v>
-      </c>
-      <c r="H72" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>363</v>
-      </c>
-      <c r="B73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" t="s">
-        <v>364</v>
-      </c>
-      <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>365</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>366</v>
-      </c>
-      <c r="E74" t="s">
-        <v>367</v>
-      </c>
-      <c r="F74" t="s">
-        <v>368</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>